--- a/code/notebooks/phase2results_new/itemsVsacc.xlsx
+++ b/code/notebooks/phase2results_new/itemsVsacc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6175011314092211</v>
+        <v>0.6153281699606469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006527915136904185</v>
+        <v>0.006685640905160624</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6208238761582168</v>
+        <v>0.636346755377265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004946332232172482</v>
+        <v>0.005493150876484746</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6395145445423576</v>
+        <v>0.636346755377265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005700353277273623</v>
+        <v>0.003523157943896321</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6395145445423576</v>
+        <v>0.6597606942619669</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004980594199220308</v>
+        <v>0.004572854766211999</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6595823885039157</v>
+        <v>0.6637938518238783</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004132856357878662</v>
+        <v>0.004957856684898586</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6595823885039157</v>
+        <v>0.6637938518238783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004396518389383054</v>
+        <v>0.003256253723257687</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6616806898758553</v>
+        <v>0.6647876864615169</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002778373640145281</v>
+        <v>0.003153732978348891</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6693382783516129</v>
+        <v>0.6755229013282547</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003283893477331963</v>
+        <v>0.004760581011871674</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6895889286545225</v>
+        <v>0.7032691956933685</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004571085429949217</v>
+        <v>0.005508379649887749</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8268534080758416</v>
+        <v>0.7304120570410512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01138828557768066</v>
+        <v>0.005768775695736197</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8268534080758416</v>
+        <v>0.8001116313111311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005971043493430798</v>
+        <v>0.006562302396265956</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8913926287926963</v>
+        <v>0.8001116313111311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01110021026492772</v>
+        <v>0.0107611919311618</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8913926287926963</v>
+        <v>0.8483061114080492</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01496426141236857</v>
+        <v>0.01186406250034462</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8913926287926963</v>
+        <v>0.8986509130936378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01287910473788294</v>
+        <v>0.01459021383801157</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9009748963302175</v>
+        <v>0.900757304939826</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01403300057465703</v>
+        <v>0.0137780333519761</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9009748963302175</v>
+        <v>0.900757304939826</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01874668819607511</v>
+        <v>0.01840947142523339</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.903125561895144</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01807352034138564</v>
+        <v>0.01817907090424182</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9043997620373254</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02320240882637353</v>
+        <v>0.01917251211717436</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9043997620373254</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01955524188442535</v>
+        <v>0.01961510223691367</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.904587242345106</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02166772482241826</v>
+        <v>0.02376748630376757</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.904587242345106</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01987282844021845</v>
+        <v>0.02015045707295884</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.904587242345106</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01967505281988137</v>
+        <v>0.01861315181431305</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.904587242345106</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01306531042322523</v>
+        <v>0.01630540331414906</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9165439741712492</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02022805485159931</v>
+        <v>0.01858067218459696</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9165439741712492</v>
+        <v>0.9087892176531398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02104110888789777</v>
+        <v>0.01925024202152848</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9165439741712492</v>
+        <v>0.9087892176531398</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02119224294533971</v>
+        <v>0.02256739992373904</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9165439741712492</v>
+        <v>0.9091657492550074</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01994889575378821</v>
+        <v>0.01764295618838918</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9165439741712492</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0182605728631107</v>
+        <v>0.01874511376867054</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9165448354595972</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0179418636759739</v>
+        <v>0.0187385881490221</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9165448354595972</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02269401094212551</v>
+        <v>0.02031146828340973</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9223342724595818</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01803115299130769</v>
+        <v>0.01880081438523019</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9223342724595818</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01943200705347462</v>
+        <v>0.02076221451261234</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9223342724595818</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01994774904012676</v>
+        <v>0.01662691421722802</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9223342724595818</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02090215958887918</v>
+        <v>0.01992057610651614</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9223342724595818</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0161623077602598</v>
+        <v>0.01707098244607761</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0.930686296268698</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0161526550352597</v>
+        <v>0.01708621897741694</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0.930686296268698</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01515145201285474</v>
+        <v>0.01424559648162499</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.930686296268698</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01818981515086912</v>
+        <v>0.0187427794714581</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.930686296268698</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01594979031751845</v>
+        <v>0.01751182595866696</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>0.930686296268698</v>
+        <v>0.927431889515984</v>
       </c>
       <c r="C41" t="n">
-        <v>0.020414452050534</v>
+        <v>0.01687407263033447</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0.930686296268698</v>
+        <v>0.9279255420956678</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0162311323930244</v>
+        <v>0.01596590730700758</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0.930686296268698</v>
+        <v>0.9279255420956678</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01402792904391357</v>
+        <v>0.01440119071040988</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.930686296268698</v>
+        <v>0.9312856605982068</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01442566699301117</v>
+        <v>0.01266596672997985</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.930686296268698</v>
+        <v>0.9312856605982068</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01304145640055761</v>
+        <v>0.01463356543325219</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0.930686296268698</v>
+        <v>0.9312856605982068</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01319587932439729</v>
+        <v>0.01259391258114496</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9322909919962006</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0134620563950984</v>
+        <v>0.01334777116940812</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9322909919962006</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01213603931726816</v>
+        <v>0.01198324958160755</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9322909919962006</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01235609590374332</v>
+        <v>0.01122027401307283</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0.932367439655304</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01233159723861969</v>
+        <v>0.009906839949091932</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0.932367439655304</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01073848555489017</v>
+        <v>0.01098785426999394</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9334959599123211</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C52" t="n">
-        <v>0.008802799346435228</v>
+        <v>0.008451669876313524</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9334959599123211</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C53" t="n">
-        <v>0.009426820170569991</v>
+        <v>0.01016677125811615</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9337756706393432</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C54" t="n">
-        <v>0.008625941987956477</v>
+        <v>0.008835568360452946</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9337756706393432</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C55" t="n">
-        <v>0.00906254910355953</v>
+        <v>0.007520918427817178</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9345362355255032</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C56" t="n">
-        <v>0.007297025678543127</v>
+        <v>0.007189299719118025</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9366612496697224</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C57" t="n">
-        <v>0.007176062407878624</v>
+        <v>0.00787605773456874</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9366612496697224</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C58" t="n">
-        <v>0.005401839856541244</v>
+        <v>0.00473005363266738</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0.937690699463174</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005220246668961587</v>
+        <v>0.005028662813416735</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9408543346650976</v>
+        <v>0.9412985549910156</v>
       </c>
       <c r="C60" t="n">
-        <v>0.004514844382247345</v>
+        <v>0.004238438099090009</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9408543346650976</v>
+        <v>0.9412985549910156</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004305967108151771</v>
+        <v>0.003746616258724115</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9408543346650976</v>
+        <v>0.9443501047854622</v>
       </c>
       <c r="C62" t="n">
-        <v>0.00348621331977735</v>
+        <v>0.00290213644270369</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9408543346650976</v>
+        <v>0.9443501047854622</v>
       </c>
       <c r="C63" t="n">
-        <v>0.003553103351916499</v>
+        <v>0.002968003681467944</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>0.940857738573632</v>
+        <v>0.9443501047854622</v>
       </c>
       <c r="C64" t="n">
-        <v>0.002298743172033553</v>
+        <v>0.002360331000710836</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0.940857738573632</v>
+        <v>0.9458733256091834</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002416169540858319</v>
+        <v>0.002323546371111599</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>0.943049650643414</v>
+        <v>0.9458733256091834</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001671111813576996</v>
+        <v>0.001514458826994413</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>0.943049650643414</v>
+        <v>0.9458733256091834</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001632882746570325</v>
+        <v>0.001470891907751276</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>0.943049650643414</v>
+        <v>0.9458733256091834</v>
       </c>
       <c r="C68" t="n">
-        <v>0.001377008911245628</v>
+        <v>0.001296400214819907</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>0.943049650643414</v>
+        <v>0.9458733256091834</v>
       </c>
       <c r="C69" t="n">
-        <v>0.001473333835593715</v>
+        <v>0.001268897865222096</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>0.946886986686023</v>
+        <v>0.9458733256091834</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001386713189453333</v>
+        <v>0.001362397323663435</v>
       </c>
     </row>
     <row r="71">
@@ -1214,21 +1214,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9480987020530836</v>
+        <v>0.9458733256091834</v>
       </c>
       <c r="C71" t="n">
-        <v>0.001763894810198119</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9480987020530836</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.004301232472805796</v>
+        <v>0.003524242392472466</v>
       </c>
     </row>
   </sheetData>
